--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE5D90-DFCE-4595-AAC5-FBD55C966173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6C851-691B-49DA-9136-C3D380A633F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="174" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -135,7 +142,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -144,18 +151,21 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -440,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="12.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
@@ -457,7 +467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -477,7 +487,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -497,7 +507,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -517,7 +527,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -537,7 +547,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -557,7 +567,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -577,7 +587,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -597,7 +607,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="5">
@@ -617,7 +627,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="5">
@@ -637,7 +647,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="5">
@@ -657,7 +667,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="5">
@@ -677,7 +687,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="5">
@@ -697,7 +707,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="5">
@@ -717,7 +727,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="5">
@@ -737,7 +747,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="5">
@@ -757,7 +767,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="5">
@@ -777,7 +787,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="5">
@@ -797,7 +807,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="5">
@@ -817,7 +827,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="5">
@@ -837,7 +847,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="5">
@@ -849,7 +859,7 @@
       <c r="D20">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F20">
@@ -857,7 +867,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="5">
@@ -877,7 +887,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="5">
@@ -897,8 +907,559 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44166</v>
+      </c>
+      <c r="C23">
+        <v>1.91</v>
+      </c>
+      <c r="D23">
+        <v>1.8</v>
+      </c>
+      <c r="E23">
+        <v>1.72</v>
+      </c>
+      <c r="F23">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44136</v>
+      </c>
+      <c r="C24">
+        <v>1.91</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>1.72</v>
+      </c>
+      <c r="F24">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C25">
+        <v>1.91</v>
+      </c>
+      <c r="D25">
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <v>1.72</v>
+      </c>
+      <c r="F25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44075</v>
+      </c>
+      <c r="C26">
+        <v>1.91</v>
+      </c>
+      <c r="D26">
+        <v>1.8</v>
+      </c>
+      <c r="E26">
+        <v>1.72</v>
+      </c>
+      <c r="F26">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44044</v>
+      </c>
+      <c r="C27">
+        <v>1.91</v>
+      </c>
+      <c r="D27">
+        <v>1.8</v>
+      </c>
+      <c r="E27">
+        <v>1.72</v>
+      </c>
+      <c r="F27">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>44013</v>
+      </c>
+      <c r="C28">
+        <v>1.91</v>
+      </c>
+      <c r="D28">
+        <v>1.8</v>
+      </c>
+      <c r="E28">
+        <v>1.72</v>
+      </c>
+      <c r="F28">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43983</v>
+      </c>
+      <c r="C29">
+        <v>1.91</v>
+      </c>
+      <c r="D29">
+        <v>1.8</v>
+      </c>
+      <c r="E29">
+        <v>1.72</v>
+      </c>
+      <c r="F29">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43952</v>
+      </c>
+      <c r="C30">
+        <v>1.91</v>
+      </c>
+      <c r="D30">
+        <v>1.8</v>
+      </c>
+      <c r="E30">
+        <v>1.72</v>
+      </c>
+      <c r="F30">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43922</v>
+      </c>
+      <c r="C31">
+        <v>1.91</v>
+      </c>
+      <c r="D31">
+        <v>1.8</v>
+      </c>
+      <c r="E31">
+        <v>1.72</v>
+      </c>
+      <c r="F31">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43891</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.16</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.97</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43862</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43831</v>
+      </c>
+      <c r="C34">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D34">
+        <v>2.12</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43800</v>
+      </c>
+      <c r="C35">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D35">
+        <v>2.12</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43770</v>
+      </c>
+      <c r="C36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D36">
+        <v>2.09</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43739</v>
+      </c>
+      <c r="C37">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D37">
+        <v>2.12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>43709</v>
+      </c>
+      <c r="C38">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D38">
+        <v>2.16</v>
+      </c>
+      <c r="E38">
+        <v>2.08</v>
+      </c>
+      <c r="F38">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43678</v>
+      </c>
+      <c r="C39">
+        <v>2.37</v>
+      </c>
+      <c r="D39">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>43647</v>
+      </c>
+      <c r="C40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D40">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43617</v>
+      </c>
+      <c r="C41">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D41">
+        <v>2.42</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43586</v>
+      </c>
+      <c r="C42">
+        <v>2.48</v>
+      </c>
+      <c r="D42">
+        <v>2.34</v>
+      </c>
+      <c r="E42">
+        <v>2.25</v>
+      </c>
+      <c r="F42">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>43556</v>
+      </c>
+      <c r="C43">
+        <v>2.23</v>
+      </c>
+      <c r="D43">
+        <v>2.11</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43525</v>
+      </c>
+      <c r="C44">
+        <v>2.04</v>
+      </c>
+      <c r="D44">
+        <v>1.92</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>43497</v>
+      </c>
+      <c r="C45">
+        <v>1.95</v>
+      </c>
+      <c r="D45">
+        <v>1.84</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1.89</v>
+      </c>
+      <c r="E46">
+        <v>1.81</v>
+      </c>
+      <c r="F46">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>43435</v>
+      </c>
+      <c r="E47">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6C851-691B-49DA-9136-C3D380A633F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54A797-3F6C-4DA4-9165-8817ED2EF6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,71 +1393,116 @@
       <c r="B47" s="5">
         <v>43435</v>
       </c>
+      <c r="C47">
+        <v>2.25</v>
+      </c>
+      <c r="D47">
+        <v>2.15</v>
+      </c>
       <c r="E47">
         <v>2.0499999999999998</v>
+      </c>
+      <c r="F47">
+        <v>2.61</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>43405</v>
+      </c>
+      <c r="C48">
+        <v>2.57</v>
+      </c>
+      <c r="D48">
+        <v>2.46</v>
+      </c>
+      <c r="F48">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>43374</v>
+      </c>
+      <c r="C49">
+        <v>2.61</v>
+      </c>
+      <c r="D49">
+        <v>2.5</v>
+      </c>
+      <c r="F49">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>43344</v>
+      </c>
+      <c r="C50">
+        <v>2.59</v>
+      </c>
+      <c r="D50">
+        <v>2.48</v>
+      </c>
+      <c r="F50">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>59</v>
       </c>

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54A797-3F6C-4DA4-9165-8817ED2EF6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C3B04-47C2-42D3-A909-6676D9726B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,6 +1461,18 @@
       <c r="A51" s="10">
         <v>50</v>
       </c>
+      <c r="B51" s="5">
+        <v>43313</v>
+      </c>
+      <c r="C51">
+        <v>2.57</v>
+      </c>
+      <c r="D51">
+        <v>2.46</v>
+      </c>
+      <c r="F51">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C3B04-47C2-42D3-A909-6676D9726B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3F82-C1B5-448A-963C-121EFFB5358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -168,6 +168,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -453,7 +454,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,10 +1479,34 @@
       <c r="A52" s="10">
         <v>51</v>
       </c>
+      <c r="B52" s="5">
+        <v>43282</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2.56</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F52" s="11">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>43252</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2.63</v>
+      </c>
+      <c r="D53" s="11">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2.71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3F82-C1B5-448A-963C-121EFFB5358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811DE6-4BB0-489B-BC68-44F5991CDCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,10 +1513,34 @@
       <c r="A54" s="10">
         <v>53</v>
       </c>
+      <c r="B54" s="5">
+        <v>43221</v>
+      </c>
+      <c r="C54">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D54">
+        <v>2.37</v>
+      </c>
+      <c r="F54">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>43191</v>
+      </c>
+      <c r="C55">
+        <v>2.33</v>
+      </c>
+      <c r="D55">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F55">
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811DE6-4BB0-489B-BC68-44F5991CDCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EC718-F8F1-47C4-B3C6-9EE1C526AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,25 +1547,40 @@
       <c r="A56" s="10">
         <v>55</v>
       </c>
+      <c r="B56" s="5">
+        <v>43160</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>56</v>
       </c>
+      <c r="B57" s="5">
+        <v>43132</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>57</v>
       </c>
+      <c r="B58" s="5">
+        <v>43101</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>58</v>
       </c>
+      <c r="B59" s="5">
+        <v>43070</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>43040</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
+++ b/Dataset_UAE_Petrol_Diesel_Price/United Arab Emirates__Petrol_Diesel_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstation\GitHub\Excel_Files\Dataset_UAE_Petrol_Diesel_Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EC718-F8F1-47C4-B3C6-9EE1C526AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04759454-0836-43B8-B41F-F9B032724356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,6 +1583,30 @@
         <v>43040</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>42948</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
